--- a/prep/goal tables.xlsx
+++ b/prep/goal tables.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180"/>
+    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AO" sheetId="1" r:id="rId1"/>
+    <sheet name="LIV" sheetId="2" r:id="rId2"/>
+    <sheet name="ECO" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>region_id</t>
   </si>
@@ -40,6 +41,24 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Kauai &amp; Niihau</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>goal</t>
   </si>
 </sst>
 </file>
@@ -66,7 +85,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +95,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,13 +123,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,6 +142,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -402,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,24 +532,236 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>80.507887199999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.57178839999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>86.612284799999998</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.57864289999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>79.561939199999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.55067770000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>70.994648100000006</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.57850000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>79.259559999999993</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>74.916460000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-1.26E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>68.873230000000007</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>80.616280000000003</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/prep/goal tables.xlsx
+++ b/prep/goal tables.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\eschemmel\Documents\github\mhi\prep\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180"/>
+    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AO" sheetId="1" r:id="rId1"/>
+    <sheet name="LIV" sheetId="2" r:id="rId2"/>
+    <sheet name="ECO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>region_id</t>
   </si>
@@ -40,12 +45,24 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Kauai &amp; Niihau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,7 +83,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +93,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,13 +115,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,6 +132,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -156,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +216,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,6 +268,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,24 +556,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>80.507887199999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.57178839999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>86.612284799999998</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.57864289999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>79.561939199999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.55067770000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>70.994648100000006</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.57850000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prep/goal tables.xlsx
+++ b/prep/goal tables.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180" activeTab="3"/>
+    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AO" sheetId="1" r:id="rId1"/>
     <sheet name="LIV" sheetId="2" r:id="rId2"/>
     <sheet name="ECO" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="SPP" sheetId="4" r:id="rId4"/>
+    <sheet name="T" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>region_id</t>
   </si>
@@ -85,7 +86,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +111,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -123,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -133,6 +140,8 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -758,6 +767,81 @@
       </c>
       <c r="D5" s="4">
         <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>61.9</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.29110000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.24629999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.39589999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.39689999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/prep/goal tables.xlsx
+++ b/prep/goal tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180" activeTab="4"/>
+    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AO" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ECO" sheetId="3" r:id="rId3"/>
     <sheet name="SPP" sheetId="4" r:id="rId4"/>
     <sheet name="T" sheetId="5" r:id="rId5"/>
+    <sheet name="BD" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
   <si>
     <t>region_id</t>
   </si>
@@ -60,13 +61,88 @@
   </si>
   <si>
     <t>goal</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>rgn_id</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>score e</t>
+  </si>
+  <si>
+    <t>nv_score</t>
+  </si>
+  <si>
+    <t>n_score</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Economic</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>reef</t>
+  </si>
+  <si>
+    <t>soft-bottom</t>
+  </si>
+  <si>
+    <t>watershed</t>
+  </si>
+  <si>
+    <t>wetland</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference </t>
+  </si>
+  <si>
+    <t>% acreation</t>
+  </si>
+  <si>
+    <t>%CC, %CA, %MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% area unimpacted by dredging </t>
+  </si>
+  <si>
+    <t>30% of priority watersheds protected</t>
+  </si>
+  <si>
+    <t>no historic extent data = 50%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +161,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +205,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,11 +226,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -142,6 +251,24 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,19 +904,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -799,8 +932,17 @@
       <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -810,8 +952,17 @@
       <c r="C2" s="1">
         <v>-0.29110000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" s="14">
+        <v>63.542400000000001</v>
+      </c>
+      <c r="H2" s="14">
+        <v>45.580735000000004</v>
+      </c>
+      <c r="I2" s="14">
+        <v>79.665359499999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -822,7 +973,7 @@
         <v>-0.24629999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -833,7 +984,7 @@
         <v>-0.39589999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -844,8 +995,902 @@
         <v>-0.39689999999999998</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D12" s="1">
+        <v>67.461749999999995</v>
+      </c>
+      <c r="E12" s="1">
+        <v>41.946820000000002</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1">
+        <v>69.802859999999995</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="14">
+        <f>AVERAGE(D12:D16)</f>
+        <v>63.542400000000001</v>
+      </c>
+      <c r="J12" s="14">
+        <f>AVERAGE(E12:E16)</f>
+        <v>41.946820000000002</v>
+      </c>
+      <c r="K12" s="14">
+        <f>AVERAGE(F12:F16)</f>
+        <v>80.259478000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D13" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>41.946820000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>67.73227</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="14">
+        <f>AVERAGE(D17:D21)</f>
+        <v>63.542400000000001</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" ref="J13:K13" si="0">AVERAGE(E17:E21)</f>
+        <v>71.866669999999999</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>88.401960000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D14" s="1">
+        <v>64.000249999999994</v>
+      </c>
+      <c r="E14" s="1">
+        <v>41.946820000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>63.311979999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>56.41968</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="14">
+        <f>AVERAGE(D22:D26)</f>
+        <v>63.542400000000001</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:K14" si="1">AVERAGE(E22:E26)</f>
+        <v>34.510840000000002</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D15" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="E15" s="1">
+        <v>41.946820000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>87.985410000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>64.560739999999996</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="17">
+        <f>AVERAGE(D27:D31)</f>
+        <v>63.542400000000001</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" ref="J15:L15" si="2">AVERAGE(E27:E31)</f>
+        <v>33.998609999999999</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D16" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="E16" s="1">
+        <v>41.946820000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1">
+        <v>51.06561</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="14">
+        <f>AVERAGE(I12:I15)</f>
+        <v>63.542400000000001</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" ref="J16:K16" si="3">AVERAGE(J12:J15)</f>
+        <v>45.580735000000004</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="3"/>
+        <v>79.665359499999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="1">
+        <v>67.461749999999995</v>
+      </c>
+      <c r="E17" s="1">
+        <v>71.866669999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <v>79.776139999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D18" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="E18" s="1">
+        <v>71.866669999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>77.705560000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D19" s="1">
+        <v>64.000249999999994</v>
+      </c>
+      <c r="E19" s="1">
+        <v>71.866669999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <v>78.622309999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D20" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="E20" s="1">
+        <v>71.866669999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>92.009799999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>75.875489999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D21" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="E21" s="1">
+        <v>71.866669999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50</v>
+      </c>
+      <c r="G21" s="1">
+        <v>61.038890000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D22" s="1">
+        <v>67.461749999999995</v>
+      </c>
+      <c r="E22" s="1">
+        <v>34.510840000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>67.324200000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D23" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="E23" s="1">
+        <v>34.510840000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="1">
+        <v>65.253609999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D24" s="1">
+        <v>64.000249999999994</v>
+      </c>
+      <c r="E24" s="1">
+        <v>34.510840000000002</v>
+      </c>
+      <c r="F24" s="1">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1">
+        <v>49.503700000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D25" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="E25" s="1">
+        <v>34.510840000000002</v>
+      </c>
+      <c r="F25" s="1">
+        <v>50</v>
+      </c>
+      <c r="G25" s="1">
+        <v>49.420279999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D26" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="E26" s="1">
+        <v>34.510840000000002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>50</v>
+      </c>
+      <c r="G26" s="1">
+        <v>48.586950000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D27" s="1">
+        <v>67.461749999999995</v>
+      </c>
+      <c r="E27" s="1">
+        <v>33.998609999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1">
+        <v>67.153450000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2012</v>
+      </c>
+      <c r="D28" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="E28" s="1">
+        <v>33.998609999999999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1">
+        <v>65.08287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D29" s="1">
+        <v>64.000249999999994</v>
+      </c>
+      <c r="E29" s="1">
+        <v>33.998609999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>65.999619999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2014</v>
+      </c>
+      <c r="D30" s="1">
+        <v>63.75</v>
+      </c>
+      <c r="E30" s="1">
+        <v>33.998609999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1">
+        <v>49.249540000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2015</v>
+      </c>
+      <c r="D31" s="1">
+        <v>61.25</v>
+      </c>
+      <c r="E31" s="1">
+        <v>33.998609999999999</v>
+      </c>
+      <c r="F31" s="1">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1">
+        <v>48.416200000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="20"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="20">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="20">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="20">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="20">
+        <v>40.160310000000003</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="20">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="20">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="20">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="20">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="20">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="20">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="20">
+        <v>25.288350000000001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="20">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="20">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="20">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="20">
+        <v>24.26388</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="20">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prep/goal tables.xlsx
+++ b/prep/goal tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180" activeTab="5"/>
+    <workbookView xWindow="840" yWindow="900" windowWidth="23235" windowHeight="9180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AO" sheetId="1" r:id="rId1"/>
@@ -13,23 +13,19 @@
     <sheet name="SPP" sheetId="4" r:id="rId4"/>
     <sheet name="T" sheetId="5" r:id="rId5"/>
     <sheet name="BD" sheetId="6" r:id="rId6"/>
+    <sheet name="LSP" sheetId="7" r:id="rId7"/>
+    <sheet name="fis" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
     <t>region_id</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>trend</t>
-  </si>
-  <si>
     <t>Maui Nui</t>
   </si>
   <si>
@@ -133,16 +129,107 @@
   </si>
   <si>
     <t>no historic extent data = 50%</t>
+  </si>
+  <si>
+    <t>area_inland1km area_offshore3nm</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>mpa</t>
+  </si>
+  <si>
+    <t>pct_cp  pct_cmpa prop_protected</t>
+  </si>
+  <si>
+    <t>1       507.7282         2718.606</t>
+  </si>
+  <si>
+    <t>30.48248 22.522631      0.8753772</t>
+  </si>
+  <si>
+    <t>2       531.0964         3206.865</t>
+  </si>
+  <si>
+    <t>34.10326 11.609298      0.6934883</t>
+  </si>
+  <si>
+    <t>3       280.4189         1258.570</t>
+  </si>
+  <si>
+    <t>16.80442  6.006244      0.3801777</t>
+  </si>
+  <si>
+    <t>4       231.5580         1471.887</t>
+  </si>
+  <si>
+    <t>15.23862  3.466648      0.3117544</t>
+  </si>
+  <si>
+    <t>Coastal</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>key.x</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>mean_score</t>
+  </si>
+  <si>
+    <t>&lt;chr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dbl&gt;</t>
+  </si>
+  <si>
+    <t>BMUS</t>
+  </si>
+  <si>
+    <t>CHCR</t>
+  </si>
+  <si>
+    <t>PMUS</t>
+  </si>
+  <si>
+    <t>Fishery</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Nearshore</t>
+  </si>
+  <si>
+    <t>Pelagic</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,11 +244,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
@@ -172,6 +254,17 @@
       <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -239,11 +332,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -251,24 +342,42 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,89 +682,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="22">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="23">
+        <v>31.66</v>
+      </c>
+      <c r="D2" s="24">
+        <v>71</v>
+      </c>
+      <c r="E2" s="24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>26.811160000000001</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-5.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="23">
+        <v>41.53</v>
+      </c>
+      <c r="D3" s="24">
+        <v>63</v>
+      </c>
+      <c r="E3" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>46.780500000000004</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="23">
+        <v>48.06</v>
+      </c>
+      <c r="D4" s="24">
+        <v>51</v>
+      </c>
+      <c r="E4" s="24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>48.207590000000003</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B5" s="22">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>51.14781</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4.2000000000000003E-2</v>
-      </c>
+      <c r="C5" s="23">
+        <v>49.54</v>
+      </c>
+      <c r="D5" s="24">
+        <v>74</v>
+      </c>
+      <c r="E5" s="24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
     </row>
   </sheetData>
   <sortState ref="B2:D5">
@@ -682,57 +819,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>80.507887199999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.57178839999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>86.612284799999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.57864289999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>79.561939199999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.55067770000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4">
-        <v>80.507887199999999</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.57178839999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>86.612284799999998</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.57864289999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>79.561939199999998</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.55067770000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>70.994648100000006</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.57850000000000001</v>
       </c>
     </row>
@@ -753,57 +890,57 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>100</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>100</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -823,76 +960,76 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>8</v>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>79.259559999999993</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>1.44E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>74.916460000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>-1.26E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
         <v>68.873230000000007</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
         <v>80.616280000000003</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -923,28 +1060,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>61.9</v>
@@ -952,19 +1089,19 @@
       <c r="C2" s="1">
         <v>-0.29110000000000003</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <v>63.542400000000001</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="12">
         <v>45.580735000000004</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <v>79.665359499999994</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>74.599999999999994</v>
@@ -974,8 +1111,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>56</v>
@@ -985,8 +1122,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>59.2</v>
@@ -996,42 +1133,42 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="K11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>1</v>
       </c>
       <c r="B12" s="1">
@@ -1052,24 +1189,24 @@
       <c r="G12" s="1">
         <v>69.802859999999995</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="12">
         <f>AVERAGE(D12:D16)</f>
         <v>63.542400000000001</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <f>AVERAGE(E12:E16)</f>
         <v>41.946820000000002</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="12">
         <f>AVERAGE(F12:F16)</f>
         <v>80.259478000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" s="1">
@@ -1090,24 +1227,24 @@
       <c r="G13" s="1">
         <v>67.73227</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="H13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
         <f>AVERAGE(D17:D21)</f>
         <v>63.542400000000001</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f t="shared" ref="J13:K13" si="0">AVERAGE(E17:E21)</f>
         <v>71.866669999999999</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>88.401960000000003</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>3</v>
       </c>
       <c r="B14" s="1">
@@ -1128,24 +1265,24 @@
       <c r="G14" s="1">
         <v>56.41968</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="H14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="12">
         <f>AVERAGE(D22:D26)</f>
         <v>63.542400000000001</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f t="shared" ref="J14:K14" si="1">AVERAGE(E22:E26)</f>
         <v>34.510840000000002</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
       <c r="B15" s="1">
@@ -1166,24 +1303,24 @@
       <c r="G15" s="1">
         <v>64.560739999999996</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="H15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="15">
         <f>AVERAGE(D27:D31)</f>
         <v>63.542400000000001</v>
       </c>
-      <c r="J15" s="17">
-        <f t="shared" ref="J15:L15" si="2">AVERAGE(E27:E31)</f>
+      <c r="J15" s="15">
+        <f t="shared" ref="J15:K15" si="2">AVERAGE(E27:E31)</f>
         <v>33.998609999999999</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>5</v>
       </c>
       <c r="B16" s="1">
@@ -1205,23 +1342,23 @@
         <v>51.06561</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="14">
+        <v>23</v>
+      </c>
+      <c r="I16" s="12">
         <f>AVERAGE(I12:I15)</f>
         <v>63.542400000000001</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <f t="shared" ref="J16:K16" si="3">AVERAGE(J12:J15)</f>
         <v>45.580735000000004</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="12">
         <f t="shared" si="3"/>
         <v>79.665359499999994</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>6</v>
       </c>
       <c r="B17" s="1">
@@ -1244,7 +1381,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>7</v>
       </c>
       <c r="B18" s="1">
@@ -1267,7 +1404,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>8</v>
       </c>
       <c r="B19" s="1">
@@ -1290,7 +1427,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>9</v>
       </c>
       <c r="B20" s="1">
@@ -1313,7 +1450,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>10</v>
       </c>
       <c r="B21" s="1">
@@ -1336,7 +1473,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>11</v>
       </c>
       <c r="B22" s="1">
@@ -1359,7 +1496,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>12</v>
       </c>
       <c r="B23" s="1">
@@ -1382,7 +1519,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>13</v>
       </c>
       <c r="B24" s="1">
@@ -1405,7 +1542,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>14</v>
       </c>
       <c r="B25" s="1">
@@ -1428,7 +1565,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="9">
         <v>15</v>
       </c>
       <c r="B26" s="1">
@@ -1451,7 +1588,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <v>16</v>
       </c>
       <c r="B27" s="1">
@@ -1474,7 +1611,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="9">
         <v>17</v>
       </c>
       <c r="B28" s="1">
@@ -1497,7 +1634,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="9">
         <v>18</v>
       </c>
       <c r="B29" s="1">
@@ -1520,7 +1657,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="9">
         <v>19</v>
       </c>
       <c r="B30" s="1">
@@ -1543,7 +1680,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="9">
         <v>20</v>
       </c>
       <c r="B31" s="1">
@@ -1566,11 +1703,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>14</v>
+      <c r="A33" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1583,312 +1720,606 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="20"/>
+    <col min="3" max="3" width="9.140625" style="18"/>
     <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>32</v>
+      <c r="D1" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="20">
+        <v>24</v>
+      </c>
+      <c r="C2" s="18">
         <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="20">
+        <v>25</v>
+      </c>
+      <c r="C3" s="18">
         <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="20">
+        <v>26</v>
+      </c>
+      <c r="C4" s="18">
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="20">
+        <v>27</v>
+      </c>
+      <c r="C5" s="18">
         <v>40.160310000000003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="20">
+        <v>28</v>
+      </c>
+      <c r="C6" s="18">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="20">
+        <v>24</v>
+      </c>
+      <c r="C7" s="18">
         <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="20">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18">
         <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="20">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18">
         <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="20">
+        <v>27</v>
+      </c>
+      <c r="C10" s="18">
         <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="20">
+        <v>28</v>
+      </c>
+      <c r="C11" s="18">
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="20">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18">
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="20">
+        <v>25</v>
+      </c>
+      <c r="C13" s="18">
         <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="20">
+        <v>26</v>
+      </c>
+      <c r="C14" s="18">
         <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="20">
+        <v>27</v>
+      </c>
+      <c r="C15" s="18">
         <v>25.288350000000001</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="20">
+        <v>28</v>
+      </c>
+      <c r="C16" s="18">
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="20">
+        <v>24</v>
+      </c>
+      <c r="C17" s="18">
         <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="20">
+        <v>25</v>
+      </c>
+      <c r="C18" s="18">
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="20">
+        <v>26</v>
+      </c>
+      <c r="C19" s="18">
         <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="20">
+        <v>27</v>
+      </c>
+      <c r="C20" s="18">
         <v>24.26388</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="20">
+        <v>28</v>
+      </c>
+      <c r="C21" s="18">
         <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>154.76814999999999</v>
+      </c>
+      <c r="D2">
+        <v>612.30155999999999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>30.5</v>
+      </c>
+      <c r="H2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>181.12117000000001</v>
+      </c>
+      <c r="D3">
+        <v>372.29446999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>34.1</v>
+      </c>
+      <c r="H3">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>47.122770000000003</v>
+      </c>
+      <c r="D4">
+        <v>75.592789999999994</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>16.8</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>35.286239999999999</v>
+      </c>
+      <c r="D5">
+        <v>51.025129999999997</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>15.2</v>
+      </c>
+      <c r="H5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f>AVERAGE(G2:G5)</f>
+        <v>24.15</v>
+      </c>
+      <c r="H6">
+        <f>G6/30</f>
+        <v>0.80499999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f>13.12/30</f>
+        <v>0.4373333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>2140907</v>
+      </c>
+      <c r="D3">
+        <v>0.874359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>5613968</v>
+      </c>
+      <c r="D4">
+        <v>0.93859749999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>22260467</v>
+      </c>
+      <c r="D5">
+        <v>0.94345800000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="27">
+        <f>C3/SUM(C3:C5)</f>
+        <v>7.1327089992844331E-2</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="27">
+        <f>C4/SUM(C3:C5)</f>
+        <v>0.18703661614117206</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="27">
+        <f>C5/SUM(C3:C5)</f>
+        <v>0.74163629386598362</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
